--- a/Agosto/08 agosto/matehuala/PLANTILLA LISTA DE ASPIRANTES_MATEHUALA(EXTRAORDINARIAS) (1).xlsx
+++ b/Agosto/08 agosto/matehuala/PLANTILLA LISTA DE ASPIRANTES_MATEHUALA(EXTRAORDINARIAS) (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITMH\Desktop\Fichas_2021\Fichas 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proyecto01TICs\Documents\Evaluatec2024\Agosto\08 agosto\matehuala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FA4275-9848-4183-BCCD-81EFA3D5E7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AC09B1-1A71-4AD2-8BD9-E59432877597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D610CFFB-2790-104B-A52B-2B33694C28D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D610CFFB-2790-104B-A52B-2B33694C28D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1966,7 +1966,17 @@
     <cellStyle name="Hyperlink" xfId="3" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="h:mm\ AM/PM"/>
     </dxf>
@@ -2012,22 +2022,22 @@
     <tableColumn id="4" xr3:uid="{12ECD994-2599-D747-9343-DEBBC900F696}" name="CORREO ELECTRONICO"/>
     <tableColumn id="13" xr3:uid="{2CF83F94-7C47-E74B-A32A-851420E76EC2}" name="CLAVE CARRERA" dataCellStyle="Hipervínculo"/>
     <tableColumn id="5" xr3:uid="{EC8B66B2-D538-484E-9EC1-54F93F611149}" name="CARRERA"/>
-    <tableColumn id="6" xr3:uid="{A03F9403-44DC-3442-924E-BEF260777F9E}" name="VERSION" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{A89BFD66-403C-B546-AB81-3B9805EF36E6}" name="FECHA SIMULACRO" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{96CA5407-7E0C-C849-8EC4-BA775188CD65}" name="HORA DE SIMULACRO" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{7AF8570F-2BED-A94F-B1CD-180258ABC8CA}" name="FECHA APLICACIÓN OFICIAL" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{FD3E5F78-2C8E-FB4D-924C-FA114DEF91F1}" name="HORA APLICACIÓN OFICIAL" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{B5C530FC-6A39-C746-86DE-949977537C53}" name="¿ASPIRANTE EN PLANTEL?" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{44D56D16-D5EE-CE4F-8BAC-A3A00266F657}" name="AULA" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{A03F9403-44DC-3442-924E-BEF260777F9E}" name="VERSION" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{A89BFD66-403C-B546-AB81-3B9805EF36E6}" name="FECHA SIMULACRO" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{96CA5407-7E0C-C849-8EC4-BA775188CD65}" name="HORA DE SIMULACRO" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{7AF8570F-2BED-A94F-B1CD-180258ABC8CA}" name="FECHA APLICACIÓN OFICIAL" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{FD3E5F78-2C8E-FB4D-924C-FA114DEF91F1}" name="HORA APLICACIÓN OFICIAL" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{B5C530FC-6A39-C746-86DE-949977537C53}" name="¿ASPIRANTE EN PLANTEL?" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{44D56D16-D5EE-CE4F-8BAC-A3A00266F657}" name="AULA" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2065,7 +2075,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2171,7 +2181,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2313,7 +2323,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2323,28 +2333,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D137AA-41E5-5140-AC23-8A814C9A306A}">
   <dimension ref="A1:O467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="34.3984375" customWidth="1"/>
-    <col min="3" max="3" width="23.59765625" customWidth="1"/>
-    <col min="4" max="4" width="32.19921875" customWidth="1"/>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="32.25" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.09765625" customWidth="1"/>
-    <col min="7" max="7" width="13.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.125" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.5" customWidth="1"/>
-    <col min="10" max="10" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.3984375" customWidth="1"/>
-    <col min="13" max="13" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.375" customWidth="1"/>
+    <col min="13" max="13" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -2352,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="34" t="s">
         <v>16</v>
       </c>
@@ -2365,10 +2375,10 @@
       <c r="J2" s="34"/>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="L3" s="36"/>
     </row>
-    <row r="4" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -2409,7 +2419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>24660040</v>
       </c>
@@ -2444,7 +2454,7 @@
       </c>
       <c r="M5" s="27"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>24660046</v>
       </c>
@@ -2481,7 +2491,7 @@
       <c r="N6" s="35"/>
       <c r="O6" s="35"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>24660055</v>
       </c>
@@ -2516,7 +2526,7 @@
       </c>
       <c r="M7" s="27"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>24660072</v>
       </c>
@@ -2551,7 +2561,7 @@
       </c>
       <c r="M8" s="27"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>24660087</v>
       </c>
@@ -2586,7 +2596,7 @@
       </c>
       <c r="M9" s="27"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>24660098</v>
       </c>
@@ -2621,7 +2631,7 @@
       </c>
       <c r="M10" s="27"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
         <v>24660123</v>
       </c>
@@ -2656,7 +2666,7 @@
       </c>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>24660124</v>
       </c>
@@ -2691,7 +2701,7 @@
       </c>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>24660257</v>
       </c>
@@ -2726,7 +2736,7 @@
       </c>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>24660298</v>
       </c>
@@ -2761,7 +2771,7 @@
       </c>
       <c r="M14" s="27"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>24660307</v>
       </c>
@@ -2796,7 +2806,7 @@
       </c>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>24660308</v>
       </c>
@@ -2831,7 +2841,7 @@
       </c>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
         <v>24660309</v>
       </c>
@@ -2866,7 +2876,7 @@
       </c>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
         <v>24660310</v>
       </c>
@@ -2901,7 +2911,7 @@
       </c>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
         <v>24660311</v>
       </c>
@@ -2936,7 +2946,7 @@
       </c>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <v>24660312</v>
       </c>
@@ -2971,7 +2981,7 @@
       </c>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="32">
         <v>24660313</v>
       </c>
@@ -3006,7 +3016,7 @@
       </c>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
         <v>24660314</v>
       </c>
@@ -3041,7 +3051,7 @@
       </c>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="32">
         <v>24660315</v>
       </c>
@@ -3076,7 +3086,7 @@
       </c>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
         <v>24660316</v>
       </c>
@@ -3111,7 +3121,7 @@
       </c>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="32">
         <v>24660317</v>
       </c>
@@ -3146,7 +3156,7 @@
       </c>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="32">
         <v>24660318</v>
       </c>
@@ -3181,7 +3191,7 @@
       </c>
       <c r="M26" s="24"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>24660319</v>
       </c>
@@ -3216,7 +3226,7 @@
       </c>
       <c r="M27" s="27"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>24660320</v>
       </c>
@@ -3251,7 +3261,7 @@
       </c>
       <c r="M28" s="27"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>24660321</v>
       </c>
@@ -3286,7 +3296,7 @@
       </c>
       <c r="M29" s="27"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>24660322</v>
       </c>
@@ -3321,7 +3331,7 @@
       </c>
       <c r="M30" s="27"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>24660323</v>
       </c>
@@ -3356,7 +3366,7 @@
       </c>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>24660324</v>
       </c>
@@ -3391,7 +3401,7 @@
       </c>
       <c r="M32" s="27"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
         <v>24660325</v>
       </c>
@@ -3426,7 +3436,7 @@
       </c>
       <c r="M33" s="27"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="31">
         <v>24660326</v>
       </c>
@@ -3461,7 +3471,7 @@
       </c>
       <c r="M34" s="27"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="31">
         <v>24660327</v>
       </c>
@@ -3496,7 +3506,7 @@
       </c>
       <c r="M35" s="27"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
         <v>24660328</v>
       </c>
@@ -3531,7 +3541,7 @@
       </c>
       <c r="M36" s="27"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="31">
         <v>24660329</v>
       </c>
@@ -3566,7 +3576,7 @@
       </c>
       <c r="M37" s="27"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="31">
         <v>24660330</v>
       </c>
@@ -3601,7 +3611,7 @@
       </c>
       <c r="M38" s="27"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
         <v>24660331</v>
       </c>
@@ -3636,7 +3646,7 @@
       </c>
       <c r="M39" s="27"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
         <v>24660332</v>
       </c>
@@ -3671,7 +3681,7 @@
       </c>
       <c r="M40" s="27"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="31">
         <v>24660333</v>
       </c>
@@ -3706,7 +3716,7 @@
       </c>
       <c r="M41" s="27"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="31">
         <v>24660334</v>
       </c>
@@ -3741,7 +3751,7 @@
       </c>
       <c r="M42" s="27"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
         <v>24660335</v>
       </c>
@@ -3776,7 +3786,7 @@
       </c>
       <c r="M43" s="27"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="31">
         <v>24660336</v>
       </c>
@@ -3811,7 +3821,7 @@
       </c>
       <c r="M44" s="27"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="31">
         <v>24660337</v>
       </c>
@@ -3846,7 +3856,7 @@
       </c>
       <c r="M45" s="27"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="31">
         <v>24660338</v>
       </c>
@@ -3881,7 +3891,7 @@
       </c>
       <c r="M46" s="27"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="31">
         <v>24660339</v>
       </c>
@@ -3916,7 +3926,7 @@
       </c>
       <c r="M47" s="27"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="31">
         <v>24660340</v>
       </c>
@@ -3951,7 +3961,7 @@
       </c>
       <c r="M48" s="27"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="31">
         <v>24660341</v>
       </c>
@@ -3986,7 +3996,7 @@
       </c>
       <c r="M49" s="27"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="31">
         <v>24660342</v>
       </c>
@@ -4021,7 +4031,7 @@
       </c>
       <c r="M50" s="27"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="31">
         <v>24660343</v>
       </c>
@@ -4056,7 +4066,7 @@
       </c>
       <c r="M51" s="27"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="31">
         <v>24660344</v>
       </c>
@@ -4091,7 +4101,7 @@
       </c>
       <c r="M52" s="27"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="31">
         <v>24660345</v>
       </c>
@@ -4126,7 +4136,7 @@
       </c>
       <c r="M53" s="27"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="31">
         <v>24660346</v>
       </c>
@@ -4161,7 +4171,7 @@
       </c>
       <c r="M54" s="27"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="31">
         <v>24660347</v>
       </c>
@@ -4196,7 +4206,7 @@
       </c>
       <c r="M55" s="27"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="31">
         <v>24660348</v>
       </c>
@@ -4231,7 +4241,7 @@
       </c>
       <c r="M56" s="27"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="31">
         <v>24660349</v>
       </c>
@@ -4266,7 +4276,7 @@
       </c>
       <c r="M57" s="27"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="31">
         <v>24660350</v>
       </c>
@@ -4301,7 +4311,7 @@
       </c>
       <c r="M58" s="27"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="31">
         <v>24660351</v>
       </c>
@@ -4336,7 +4346,7 @@
       </c>
       <c r="M59" s="27"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="31">
         <v>24660352</v>
       </c>
@@ -4371,7 +4381,7 @@
       </c>
       <c r="M60" s="27"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="31">
         <v>24660353</v>
       </c>
@@ -4406,7 +4416,7 @@
       </c>
       <c r="M61" s="27"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="31">
         <v>24660354</v>
       </c>
@@ -4441,7 +4451,7 @@
       </c>
       <c r="M62" s="27"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="31">
         <v>24660355</v>
       </c>
@@ -4476,7 +4486,7 @@
       </c>
       <c r="M63" s="27"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="31">
         <v>24660356</v>
       </c>
@@ -4511,7 +4521,7 @@
       </c>
       <c r="M64" s="27"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="31">
         <v>24660357</v>
       </c>
@@ -4546,7 +4556,7 @@
       </c>
       <c r="M65" s="27"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="31">
         <v>24660358</v>
       </c>
@@ -4581,7 +4591,7 @@
       </c>
       <c r="M66" s="27"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="31">
         <v>24660359</v>
       </c>
@@ -4616,7 +4626,7 @@
       </c>
       <c r="M67" s="27"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="31">
         <v>24660360</v>
       </c>
@@ -4651,7 +4661,7 @@
       </c>
       <c r="M68" s="27"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="31">
         <v>24660361</v>
       </c>
@@ -4686,7 +4696,7 @@
       </c>
       <c r="M69" s="27"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="31">
         <v>24660362</v>
       </c>
@@ -4721,7 +4731,7 @@
       </c>
       <c r="M70" s="27"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="31">
         <v>24660363</v>
       </c>
@@ -4756,7 +4766,7 @@
       </c>
       <c r="M71" s="27"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="31">
         <v>24660364</v>
       </c>
@@ -4791,7 +4801,7 @@
       </c>
       <c r="M72" s="27"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="31">
         <v>24660365</v>
       </c>
@@ -4826,7 +4836,7 @@
       </c>
       <c r="M73" s="27"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="31">
         <v>24660366</v>
       </c>
@@ -4861,7 +4871,7 @@
       </c>
       <c r="M74" s="27"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="31">
         <v>24660367</v>
       </c>
@@ -4896,7 +4906,7 @@
       </c>
       <c r="M75" s="27"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="31">
         <v>24660368</v>
       </c>
@@ -4931,7 +4941,7 @@
       </c>
       <c r="M76" s="27"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="31">
         <v>24660369</v>
       </c>
@@ -4966,7 +4976,7 @@
       </c>
       <c r="M77" s="27"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="31">
         <v>24660370</v>
       </c>
@@ -5001,7 +5011,7 @@
       </c>
       <c r="M78" s="27"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="31">
         <v>24660371</v>
       </c>
@@ -5036,7 +5046,7 @@
       </c>
       <c r="M79" s="27"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="31">
         <v>24660372</v>
       </c>
@@ -5071,7 +5081,7 @@
       </c>
       <c r="M80" s="27"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="31">
         <v>24660373</v>
       </c>
@@ -5106,7 +5116,7 @@
       </c>
       <c r="M81" s="27"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="31">
         <v>24660374</v>
       </c>
@@ -5141,7 +5151,7 @@
       </c>
       <c r="M82" s="27"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="31">
         <v>24660375</v>
       </c>
@@ -5176,7 +5186,7 @@
       </c>
       <c r="M83" s="27"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="31">
         <v>24660376</v>
       </c>
@@ -5211,7 +5221,7 @@
       </c>
       <c r="M84" s="27"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="31">
         <v>24660377</v>
       </c>
@@ -5246,7 +5256,7 @@
       </c>
       <c r="M85" s="27"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="31">
         <v>24660378</v>
       </c>
@@ -5281,7 +5291,7 @@
       </c>
       <c r="M86" s="27"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="31">
         <v>24660379</v>
       </c>
@@ -5316,7 +5326,7 @@
       </c>
       <c r="M87" s="27"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="31">
         <v>24660380</v>
       </c>
@@ -5351,7 +5361,7 @@
       </c>
       <c r="M88" s="27"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="31">
         <v>24660381</v>
       </c>
@@ -5386,7 +5396,7 @@
       </c>
       <c r="M89" s="27"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="31">
         <v>24660382</v>
       </c>
@@ -5421,7 +5431,7 @@
       </c>
       <c r="M90" s="27"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="31">
         <v>24660383</v>
       </c>
@@ -5456,7 +5466,7 @@
       </c>
       <c r="M91" s="27"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="31">
         <v>24660384</v>
       </c>
@@ -5491,7 +5501,7 @@
       </c>
       <c r="M92" s="27"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="31">
         <v>24660385</v>
       </c>
@@ -5526,7 +5536,7 @@
       </c>
       <c r="M93" s="27"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="31">
         <v>24660386</v>
       </c>
@@ -5561,7 +5571,7 @@
       </c>
       <c r="M94" s="27"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="31">
         <v>24660387</v>
       </c>
@@ -5596,7 +5606,7 @@
       </c>
       <c r="M95" s="27"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="31">
         <v>24660388</v>
       </c>
@@ -5631,7 +5641,7 @@
       </c>
       <c r="M96" s="27"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="31">
         <v>24660389</v>
       </c>
@@ -5666,7 +5676,7 @@
       </c>
       <c r="M97" s="27"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="31">
         <v>24660390</v>
       </c>
@@ -5701,7 +5711,7 @@
       </c>
       <c r="M98" s="27"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="31">
         <v>24660391</v>
       </c>
@@ -5736,7 +5746,7 @@
       </c>
       <c r="M99" s="27"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="31">
         <v>24660392</v>
       </c>
@@ -5771,7 +5781,7 @@
       </c>
       <c r="M100" s="27"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="31">
         <v>24660393</v>
       </c>
@@ -5806,7 +5816,7 @@
       </c>
       <c r="M101" s="27"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="31">
         <v>24660394</v>
       </c>
@@ -5841,7 +5851,7 @@
       </c>
       <c r="M102" s="27"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="31">
         <v>24660395</v>
       </c>
@@ -5876,7 +5886,7 @@
       </c>
       <c r="M103" s="27"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="31">
         <v>24660396</v>
       </c>
@@ -5911,7 +5921,7 @@
       </c>
       <c r="M104" s="27"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="31">
         <v>24660397</v>
       </c>
@@ -5946,7 +5956,7 @@
       </c>
       <c r="M105" s="27"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="31">
         <v>24660398</v>
       </c>
@@ -5981,7 +5991,7 @@
       </c>
       <c r="M106" s="27"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="31">
         <v>24660399</v>
       </c>
@@ -6016,7 +6026,7 @@
       </c>
       <c r="M107" s="27"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="31">
         <v>24660400</v>
       </c>
@@ -6051,7 +6061,7 @@
       </c>
       <c r="M108" s="27"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="31">
         <v>24660401</v>
       </c>
@@ -6086,7 +6096,7 @@
       </c>
       <c r="M109" s="27"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="31">
         <v>24660402</v>
       </c>
@@ -6121,7 +6131,7 @@
       </c>
       <c r="M110" s="27"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="31">
         <v>24660403</v>
       </c>
@@ -6156,7 +6166,7 @@
       </c>
       <c r="M111" s="27"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="31">
         <v>24660404</v>
       </c>
@@ -6191,7 +6201,7 @@
       </c>
       <c r="M112" s="27"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="31">
         <v>24660405</v>
       </c>
@@ -6226,7 +6236,7 @@
       </c>
       <c r="M113" s="27"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="31">
         <v>24660406</v>
       </c>
@@ -6261,7 +6271,7 @@
       </c>
       <c r="M114" s="27"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="31">
         <v>24660407</v>
       </c>
@@ -6296,7 +6306,7 @@
       </c>
       <c r="M115" s="27"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="31">
         <v>24660408</v>
       </c>
@@ -6331,7 +6341,7 @@
       </c>
       <c r="M116" s="27"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="31">
         <v>24660409</v>
       </c>
@@ -6366,7 +6376,7 @@
       </c>
       <c r="M117" s="27"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="31">
         <v>24660410</v>
       </c>
@@ -6401,7 +6411,7 @@
       </c>
       <c r="M118" s="27"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="31">
         <v>24660411</v>
       </c>
@@ -6436,7 +6446,7 @@
       </c>
       <c r="M119" s="27"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="31">
         <v>24660412</v>
       </c>
@@ -6471,7 +6481,7 @@
       </c>
       <c r="M120" s="27"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="31">
         <v>24660413</v>
       </c>
@@ -6506,7 +6516,7 @@
       </c>
       <c r="M121" s="27"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="31">
         <v>24660414</v>
       </c>
@@ -6541,7 +6551,7 @@
       </c>
       <c r="M122" s="27"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="31">
         <v>24660415</v>
       </c>
@@ -6576,7 +6586,7 @@
       </c>
       <c r="M123" s="27"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="31">
         <v>24660416</v>
       </c>
@@ -6611,7 +6621,7 @@
       </c>
       <c r="M124" s="27"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="31">
         <v>24660417</v>
       </c>
@@ -6646,7 +6656,7 @@
       </c>
       <c r="M125" s="27"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="31">
         <v>24660418</v>
       </c>
@@ -6681,7 +6691,7 @@
       </c>
       <c r="M126" s="27"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="31">
         <v>24660419</v>
       </c>
@@ -6716,7 +6726,7 @@
       </c>
       <c r="M127" s="27"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="31">
         <v>24660421</v>
       </c>
@@ -6751,7 +6761,7 @@
       </c>
       <c r="M128" s="27"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="31">
         <v>24660422</v>
       </c>
@@ -6786,7 +6796,7 @@
       </c>
       <c r="M129" s="27"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="31">
         <v>24660423</v>
       </c>
@@ -6821,7 +6831,7 @@
       </c>
       <c r="M130" s="27"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="31">
         <v>24660424</v>
       </c>
@@ -6856,7 +6866,7 @@
       </c>
       <c r="M131" s="27"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="31">
         <v>24660425</v>
       </c>
@@ -6891,7 +6901,7 @@
       </c>
       <c r="M132" s="27"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="31">
         <v>24660426</v>
       </c>
@@ -6926,7 +6936,7 @@
       </c>
       <c r="M133" s="27"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="31">
         <v>24660427</v>
       </c>
@@ -6961,7 +6971,7 @@
       </c>
       <c r="M134" s="27"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="31">
         <v>24660428</v>
       </c>
@@ -6996,7 +7006,7 @@
       </c>
       <c r="M135" s="27"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="31">
         <v>24660429</v>
       </c>
@@ -7031,7 +7041,7 @@
       </c>
       <c r="M136" s="27"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="31">
         <v>24660430</v>
       </c>
@@ -7066,7 +7076,7 @@
       </c>
       <c r="M137" s="27"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="31">
         <v>24660431</v>
       </c>
@@ -7101,7 +7111,7 @@
       </c>
       <c r="M138" s="27"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="31">
         <v>24660432</v>
       </c>
@@ -7136,7 +7146,7 @@
       </c>
       <c r="M139" s="27"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="31">
         <v>24660433</v>
       </c>
@@ -7171,7 +7181,7 @@
       </c>
       <c r="M140" s="27"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="31">
         <v>24660434</v>
       </c>
@@ -7206,7 +7216,7 @@
       </c>
       <c r="M141" s="27"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="31">
         <v>24660436</v>
       </c>
@@ -7241,7 +7251,7 @@
       </c>
       <c r="M142" s="27"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="31">
         <v>24660437</v>
       </c>
@@ -7276,7 +7286,7 @@
       </c>
       <c r="M143" s="27"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="31">
         <v>24660438</v>
       </c>
@@ -7311,7 +7321,7 @@
       </c>
       <c r="M144" s="27"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="31">
         <v>24660439</v>
       </c>
@@ -7346,7 +7356,7 @@
       </c>
       <c r="M145" s="27"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="31">
         <v>24660440</v>
       </c>
@@ -7381,7 +7391,7 @@
       </c>
       <c r="M146" s="27"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="31">
         <v>24660441</v>
       </c>
@@ -7416,7 +7426,7 @@
       </c>
       <c r="M147" s="27"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="31">
         <v>24660442</v>
       </c>
@@ -7451,7 +7461,7 @@
       </c>
       <c r="M148" s="27"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="31">
         <v>24660444</v>
       </c>
@@ -7486,7 +7496,7 @@
       </c>
       <c r="M149" s="27"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="31">
         <v>24660445</v>
       </c>
@@ -7521,7 +7531,7 @@
       </c>
       <c r="M150" s="27"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="31">
         <v>24660447</v>
       </c>
@@ -7556,7 +7566,7 @@
       </c>
       <c r="M151" s="27"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="31">
         <v>24660450</v>
       </c>
@@ -7591,7 +7601,7 @@
       </c>
       <c r="M152" s="27"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="31">
         <v>24660451</v>
       </c>
@@ -7626,7 +7636,7 @@
       </c>
       <c r="M153" s="27"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="31">
         <v>24660452</v>
       </c>
@@ -7661,7 +7671,7 @@
       </c>
       <c r="M154" s="27"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="31">
         <v>24660453</v>
       </c>
@@ -7696,7 +7706,7 @@
       </c>
       <c r="M155" s="27"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="31">
         <v>24660454</v>
       </c>
@@ -7731,7 +7741,7 @@
       </c>
       <c r="M156" s="27"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="31">
         <v>24660455</v>
       </c>
@@ -7766,7 +7776,7 @@
       </c>
       <c r="M157" s="27"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="31">
         <v>24660456</v>
       </c>
@@ -7801,7 +7811,7 @@
       </c>
       <c r="M158" s="27"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="31">
         <v>24660457</v>
       </c>
@@ -7836,7 +7846,7 @@
       </c>
       <c r="M159" s="27"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="31">
         <v>24660458</v>
       </c>
@@ -7871,7 +7881,7 @@
       </c>
       <c r="M160" s="27"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="31">
         <v>24660459</v>
       </c>
@@ -7906,7 +7916,7 @@
       </c>
       <c r="M161" s="27"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="31">
         <v>24660460</v>
       </c>
@@ -7941,7 +7951,7 @@
       </c>
       <c r="M162" s="27"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="31">
         <v>24660461</v>
       </c>
@@ -7976,7 +7986,7 @@
       </c>
       <c r="M163" s="27"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="31">
         <v>24660462</v>
       </c>
@@ -8011,7 +8021,7 @@
       </c>
       <c r="M164" s="27"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="31">
         <v>24660463</v>
       </c>
@@ -8046,7 +8056,7 @@
       </c>
       <c r="M165" s="27"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="31">
         <v>24660464</v>
       </c>
@@ -8081,7 +8091,7 @@
       </c>
       <c r="M166" s="27"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="31">
         <v>24660465</v>
       </c>
@@ -8116,7 +8126,7 @@
       </c>
       <c r="M167" s="27"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="31">
         <v>24660466</v>
       </c>
@@ -8151,7 +8161,7 @@
       </c>
       <c r="M168" s="27"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="31">
         <v>24660467</v>
       </c>
@@ -8186,7 +8196,7 @@
       </c>
       <c r="M169" s="27"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="31">
         <v>24660468</v>
       </c>
@@ -8221,7 +8231,7 @@
       </c>
       <c r="M170" s="27"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="31">
         <v>24660469</v>
       </c>
@@ -8256,7 +8266,7 @@
       </c>
       <c r="M171" s="27"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="31">
         <v>24660470</v>
       </c>
@@ -8291,7 +8301,7 @@
       </c>
       <c r="M172" s="27"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="31">
         <v>24660471</v>
       </c>
@@ -8326,7 +8336,7 @@
       </c>
       <c r="M173" s="27"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="31">
         <v>24660472</v>
       </c>
@@ -8361,7 +8371,7 @@
       </c>
       <c r="M174" s="27"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="31">
         <v>24660473</v>
       </c>
@@ -8396,7 +8406,7 @@
       </c>
       <c r="M175" s="27"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="31">
         <v>24660474</v>
       </c>
@@ -8431,7 +8441,7 @@
       </c>
       <c r="M176" s="27"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="31">
         <v>24660475</v>
       </c>
@@ -8466,7 +8476,7 @@
       </c>
       <c r="M177" s="27"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="31">
         <v>24660476</v>
       </c>
@@ -8501,7 +8511,7 @@
       </c>
       <c r="M178" s="27"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
       <c r="C179" s="6"/>
@@ -8516,7 +8526,7 @@
       <c r="L179" s="28"/>
       <c r="M179" s="27"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
       <c r="C180" s="6"/>
@@ -8531,7 +8541,7 @@
       <c r="L180" s="28"/>
       <c r="M180" s="27"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
       <c r="C181" s="6"/>
@@ -8546,7 +8556,7 @@
       <c r="L181" s="28"/>
       <c r="M181" s="27"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
       <c r="C182" s="6"/>
@@ -8561,7 +8571,7 @@
       <c r="L182" s="28"/>
       <c r="M182" s="27"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="7"/>
       <c r="C183" s="6"/>
@@ -8576,7 +8586,7 @@
       <c r="L183" s="28"/>
       <c r="M183" s="27"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
       <c r="C184" s="6"/>
@@ -8591,7 +8601,7 @@
       <c r="L184" s="28"/>
       <c r="M184" s="27"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="7"/>
       <c r="C185" s="6"/>
@@ -8606,7 +8616,7 @@
       <c r="L185" s="28"/>
       <c r="M185" s="27"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="7"/>
       <c r="C186" s="6"/>
@@ -8621,7 +8631,7 @@
       <c r="L186" s="28"/>
       <c r="M186" s="27"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="7"/>
       <c r="C187" s="6"/>
@@ -8636,7 +8646,7 @@
       <c r="L187" s="28"/>
       <c r="M187" s="27"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="7"/>
       <c r="C188" s="6"/>
@@ -8651,7 +8661,7 @@
       <c r="L188" s="28"/>
       <c r="M188" s="27"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="7"/>
       <c r="C189" s="6"/>
@@ -8666,7 +8676,7 @@
       <c r="L189" s="28"/>
       <c r="M189" s="27"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="7"/>
       <c r="C190" s="6"/>
@@ -8681,7 +8691,7 @@
       <c r="L190" s="28"/>
       <c r="M190" s="27"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="7"/>
       <c r="C191" s="6"/>
@@ -8696,7 +8706,7 @@
       <c r="L191" s="28"/>
       <c r="M191" s="27"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="7"/>
       <c r="C192" s="6"/>
@@ -8711,7 +8721,7 @@
       <c r="L192" s="28"/>
       <c r="M192" s="27"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="7"/>
       <c r="C193" s="6"/>
@@ -8726,7 +8736,7 @@
       <c r="L193" s="28"/>
       <c r="M193" s="27"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="7"/>
       <c r="C194" s="6"/>
@@ -8741,7 +8751,7 @@
       <c r="L194" s="28"/>
       <c r="M194" s="27"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="7"/>
       <c r="C195" s="6"/>
@@ -8756,7 +8766,7 @@
       <c r="L195" s="28"/>
       <c r="M195" s="27"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="7"/>
       <c r="C196" s="6"/>
@@ -8771,7 +8781,7 @@
       <c r="L196" s="28"/>
       <c r="M196" s="27"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="7"/>
       <c r="C197" s="6"/>
@@ -8786,7 +8796,7 @@
       <c r="L197" s="28"/>
       <c r="M197" s="27"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="7"/>
       <c r="C198" s="6"/>
@@ -8801,7 +8811,7 @@
       <c r="L198" s="28"/>
       <c r="M198" s="27"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="7"/>
       <c r="C199" s="6"/>
@@ -8816,7 +8826,7 @@
       <c r="L199" s="28"/>
       <c r="M199" s="27"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="7"/>
       <c r="C200" s="6"/>
@@ -8831,7 +8841,7 @@
       <c r="L200" s="28"/>
       <c r="M200" s="27"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="7"/>
       <c r="C201" s="6"/>
@@ -8846,7 +8856,7 @@
       <c r="L201" s="28"/>
       <c r="M201" s="27"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="7"/>
       <c r="C202" s="6"/>
@@ -8861,7 +8871,7 @@
       <c r="L202" s="28"/>
       <c r="M202" s="27"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="7"/>
       <c r="C203" s="6"/>
@@ -8876,7 +8886,7 @@
       <c r="L203" s="28"/>
       <c r="M203" s="27"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="7"/>
       <c r="C204" s="6"/>
@@ -8891,7 +8901,7 @@
       <c r="L204" s="28"/>
       <c r="M204" s="27"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="7"/>
       <c r="C205" s="6"/>
@@ -8906,7 +8916,7 @@
       <c r="L205" s="28"/>
       <c r="M205" s="27"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="7"/>
       <c r="C206" s="6"/>
@@ -8921,7 +8931,7 @@
       <c r="L206" s="28"/>
       <c r="M206" s="27"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="7"/>
       <c r="C207" s="6"/>
@@ -8936,7 +8946,7 @@
       <c r="L207" s="28"/>
       <c r="M207" s="27"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="7"/>
       <c r="C208" s="6"/>
@@ -8951,7 +8961,7 @@
       <c r="L208" s="28"/>
       <c r="M208" s="27"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="7"/>
       <c r="C209" s="6"/>
@@ -8966,7 +8976,7 @@
       <c r="L209" s="28"/>
       <c r="M209" s="27"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="7"/>
       <c r="C210" s="6"/>
@@ -8981,7 +8991,7 @@
       <c r="L210" s="28"/>
       <c r="M210" s="27"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="7"/>
       <c r="C211" s="6"/>
@@ -8996,7 +9006,7 @@
       <c r="L211" s="28"/>
       <c r="M211" s="27"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="7"/>
       <c r="C212" s="6"/>
@@ -9011,7 +9021,7 @@
       <c r="L212" s="28"/>
       <c r="M212" s="27"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="7"/>
       <c r="C213" s="6"/>
@@ -9026,7 +9036,7 @@
       <c r="L213" s="28"/>
       <c r="M213" s="27"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="7"/>
       <c r="C214" s="6"/>
@@ -9041,7 +9051,7 @@
       <c r="L214" s="28"/>
       <c r="M214" s="27"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="7"/>
       <c r="C215" s="6"/>
@@ -9056,7 +9066,7 @@
       <c r="L215" s="28"/>
       <c r="M215" s="27"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="7"/>
       <c r="C216" s="6"/>
@@ -9071,7 +9081,7 @@
       <c r="L216" s="28"/>
       <c r="M216" s="27"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="7"/>
       <c r="C217" s="6"/>
@@ -9086,7 +9096,7 @@
       <c r="L217" s="28"/>
       <c r="M217" s="27"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="7"/>
       <c r="C218" s="6"/>
@@ -9101,7 +9111,7 @@
       <c r="L218" s="28"/>
       <c r="M218" s="27"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="7"/>
       <c r="C219" s="6"/>
@@ -9116,7 +9126,7 @@
       <c r="L219" s="28"/>
       <c r="M219" s="27"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="7"/>
       <c r="C220" s="6"/>
@@ -9131,7 +9141,7 @@
       <c r="L220" s="28"/>
       <c r="M220" s="27"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="7"/>
       <c r="C221" s="6"/>
@@ -9146,7 +9156,7 @@
       <c r="L221" s="28"/>
       <c r="M221" s="27"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="7"/>
       <c r="C222" s="6"/>
@@ -9161,7 +9171,7 @@
       <c r="L222" s="28"/>
       <c r="M222" s="27"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="7"/>
       <c r="C223" s="6"/>
@@ -9176,7 +9186,7 @@
       <c r="L223" s="28"/>
       <c r="M223" s="27"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="7"/>
       <c r="C224" s="6"/>
@@ -9191,7 +9201,7 @@
       <c r="L224" s="28"/>
       <c r="M224" s="27"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="7"/>
       <c r="C225" s="6"/>
@@ -9206,7 +9216,7 @@
       <c r="L225" s="28"/>
       <c r="M225" s="27"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="7"/>
       <c r="C226" s="6"/>
@@ -9221,7 +9231,7 @@
       <c r="L226" s="28"/>
       <c r="M226" s="27"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="7"/>
       <c r="C227" s="6"/>
@@ -9236,7 +9246,7 @@
       <c r="L227" s="28"/>
       <c r="M227" s="27"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="7"/>
       <c r="C228" s="6"/>
@@ -9251,7 +9261,7 @@
       <c r="L228" s="28"/>
       <c r="M228" s="27"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="7"/>
       <c r="C229" s="6"/>
@@ -9266,7 +9276,7 @@
       <c r="L229" s="28"/>
       <c r="M229" s="27"/>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="7"/>
       <c r="C230" s="6"/>
@@ -9281,7 +9291,7 @@
       <c r="L230" s="28"/>
       <c r="M230" s="27"/>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="7"/>
       <c r="C231" s="6"/>
@@ -9296,7 +9306,7 @@
       <c r="L231" s="28"/>
       <c r="M231" s="27"/>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="7"/>
       <c r="C232" s="6"/>
@@ -9311,7 +9321,7 @@
       <c r="L232" s="28"/>
       <c r="M232" s="27"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="7"/>
       <c r="C233" s="6"/>
@@ -9326,7 +9336,7 @@
       <c r="L233" s="28"/>
       <c r="M233" s="27"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="7"/>
       <c r="C234" s="6"/>
@@ -9341,7 +9351,7 @@
       <c r="L234" s="28"/>
       <c r="M234" s="27"/>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="7"/>
       <c r="C235" s="6"/>
@@ -9356,7 +9366,7 @@
       <c r="L235" s="28"/>
       <c r="M235" s="27"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="7"/>
       <c r="C236" s="6"/>
@@ -9371,7 +9381,7 @@
       <c r="L236" s="28"/>
       <c r="M236" s="27"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="7"/>
       <c r="C237" s="6"/>
@@ -9386,7 +9396,7 @@
       <c r="L237" s="28"/>
       <c r="M237" s="27"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="7"/>
       <c r="C238" s="6"/>
@@ -9401,7 +9411,7 @@
       <c r="L238" s="28"/>
       <c r="M238" s="27"/>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="7"/>
       <c r="C239" s="6"/>
@@ -9416,7 +9426,7 @@
       <c r="L239" s="28"/>
       <c r="M239" s="27"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="7"/>
       <c r="C240" s="6"/>
@@ -9431,7 +9441,7 @@
       <c r="L240" s="28"/>
       <c r="M240" s="27"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="7"/>
       <c r="C241" s="6"/>
@@ -9446,7 +9456,7 @@
       <c r="L241" s="28"/>
       <c r="M241" s="27"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="7"/>
       <c r="C242" s="6"/>
@@ -9461,7 +9471,7 @@
       <c r="L242" s="28"/>
       <c r="M242" s="27"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="7"/>
       <c r="C243" s="6"/>
@@ -9476,7 +9486,7 @@
       <c r="L243" s="28"/>
       <c r="M243" s="27"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="7"/>
       <c r="C244" s="6"/>
@@ -9491,7 +9501,7 @@
       <c r="L244" s="28"/>
       <c r="M244" s="27"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="7"/>
       <c r="C245" s="6"/>
@@ -9506,7 +9516,7 @@
       <c r="L245" s="28"/>
       <c r="M245" s="27"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="7"/>
       <c r="C246" s="6"/>
@@ -9521,7 +9531,7 @@
       <c r="L246" s="28"/>
       <c r="M246" s="27"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="7"/>
       <c r="C247" s="6"/>
@@ -9536,7 +9546,7 @@
       <c r="L247" s="28"/>
       <c r="M247" s="27"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="7"/>
       <c r="C248" s="6"/>
@@ -9551,7 +9561,7 @@
       <c r="L248" s="28"/>
       <c r="M248" s="27"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="7"/>
       <c r="C249" s="6"/>
@@ -9566,7 +9576,7 @@
       <c r="L249" s="28"/>
       <c r="M249" s="27"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="7"/>
       <c r="C250" s="6"/>
@@ -9581,7 +9591,7 @@
       <c r="L250" s="28"/>
       <c r="M250" s="27"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="7"/>
       <c r="C251" s="6"/>
@@ -9596,7 +9606,7 @@
       <c r="L251" s="28"/>
       <c r="M251" s="27"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="7"/>
       <c r="C252" s="6"/>
@@ -9611,7 +9621,7 @@
       <c r="L252" s="28"/>
       <c r="M252" s="27"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="7"/>
       <c r="C253" s="6"/>
@@ -9626,7 +9636,7 @@
       <c r="L253" s="28"/>
       <c r="M253" s="27"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="7"/>
       <c r="C254" s="6"/>
@@ -9641,7 +9651,7 @@
       <c r="L254" s="28"/>
       <c r="M254" s="27"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="7"/>
       <c r="C255" s="6"/>
@@ -9656,7 +9666,7 @@
       <c r="L255" s="28"/>
       <c r="M255" s="27"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="7"/>
       <c r="C256" s="6"/>
@@ -9671,7 +9681,7 @@
       <c r="L256" s="28"/>
       <c r="M256" s="27"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="7"/>
       <c r="C257" s="6"/>
@@ -9686,7 +9696,7 @@
       <c r="L257" s="28"/>
       <c r="M257" s="27"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="7"/>
       <c r="C258" s="6"/>
@@ -9701,7 +9711,7 @@
       <c r="L258" s="28"/>
       <c r="M258" s="27"/>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="7"/>
       <c r="C259" s="6"/>
@@ -9716,7 +9726,7 @@
       <c r="L259" s="28"/>
       <c r="M259" s="27"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="7"/>
       <c r="C260" s="6"/>
@@ -9731,7 +9741,7 @@
       <c r="L260" s="28"/>
       <c r="M260" s="27"/>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="7"/>
       <c r="C261" s="6"/>
@@ -9746,7 +9756,7 @@
       <c r="L261" s="28"/>
       <c r="M261" s="27"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="7"/>
       <c r="C262" s="6"/>
@@ -9761,7 +9771,7 @@
       <c r="L262" s="28"/>
       <c r="M262" s="27"/>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="7"/>
       <c r="C263" s="6"/>
@@ -9776,7 +9786,7 @@
       <c r="L263" s="28"/>
       <c r="M263" s="27"/>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="7"/>
       <c r="C264" s="6"/>
@@ -9791,7 +9801,7 @@
       <c r="L264" s="28"/>
       <c r="M264" s="27"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="7"/>
       <c r="C265" s="6"/>
@@ -9806,7 +9816,7 @@
       <c r="L265" s="28"/>
       <c r="M265" s="27"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="7"/>
       <c r="C266" s="6"/>
@@ -9821,7 +9831,7 @@
       <c r="L266" s="28"/>
       <c r="M266" s="27"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="7"/>
       <c r="C267" s="6"/>
@@ -9836,7 +9846,7 @@
       <c r="L267" s="28"/>
       <c r="M267" s="27"/>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="7"/>
       <c r="C268" s="6"/>
@@ -9851,7 +9861,7 @@
       <c r="L268" s="28"/>
       <c r="M268" s="27"/>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="7"/>
       <c r="C269" s="6"/>
@@ -9866,7 +9876,7 @@
       <c r="L269" s="28"/>
       <c r="M269" s="27"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="7"/>
       <c r="C270" s="6"/>
@@ -9881,7 +9891,7 @@
       <c r="L270" s="28"/>
       <c r="M270" s="27"/>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="7"/>
       <c r="C271" s="6"/>
@@ -9896,7 +9906,7 @@
       <c r="L271" s="28"/>
       <c r="M271" s="27"/>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="7"/>
       <c r="C272" s="6"/>
@@ -9911,7 +9921,7 @@
       <c r="L272" s="28"/>
       <c r="M272" s="27"/>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="7"/>
       <c r="C273" s="6"/>
@@ -9926,7 +9936,7 @@
       <c r="L273" s="28"/>
       <c r="M273" s="27"/>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="7"/>
       <c r="C274" s="6"/>
@@ -9941,7 +9951,7 @@
       <c r="L274" s="28"/>
       <c r="M274" s="27"/>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="7"/>
       <c r="C275" s="6"/>
@@ -9956,7 +9966,7 @@
       <c r="L275" s="28"/>
       <c r="M275" s="27"/>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="7"/>
       <c r="C276" s="6"/>
@@ -9971,7 +9981,7 @@
       <c r="L276" s="28"/>
       <c r="M276" s="27"/>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="7"/>
       <c r="C277" s="6"/>
@@ -9986,7 +9996,7 @@
       <c r="L277" s="28"/>
       <c r="M277" s="27"/>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="7"/>
       <c r="C278" s="6"/>
@@ -10001,7 +10011,7 @@
       <c r="L278" s="28"/>
       <c r="M278" s="27"/>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="7"/>
       <c r="C279" s="6"/>
@@ -10016,7 +10026,7 @@
       <c r="L279" s="28"/>
       <c r="M279" s="27"/>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="7"/>
       <c r="C280" s="6"/>
@@ -10031,7 +10041,7 @@
       <c r="L280" s="28"/>
       <c r="M280" s="27"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="7"/>
       <c r="C281" s="6"/>
@@ -10046,7 +10056,7 @@
       <c r="L281" s="28"/>
       <c r="M281" s="27"/>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="7"/>
       <c r="C282" s="6"/>
@@ -10061,7 +10071,7 @@
       <c r="L282" s="28"/>
       <c r="M282" s="27"/>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="7"/>
       <c r="C283" s="6"/>
@@ -10076,7 +10086,7 @@
       <c r="L283" s="28"/>
       <c r="M283" s="27"/>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="7"/>
       <c r="C284" s="6"/>
@@ -10091,7 +10101,7 @@
       <c r="L284" s="28"/>
       <c r="M284" s="27"/>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="7"/>
       <c r="C285" s="6"/>
@@ -10106,7 +10116,7 @@
       <c r="L285" s="28"/>
       <c r="M285" s="27"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="7"/>
       <c r="C286" s="6"/>
@@ -10121,7 +10131,7 @@
       <c r="L286" s="28"/>
       <c r="M286" s="27"/>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="7"/>
       <c r="C287" s="6"/>
@@ -10136,7 +10146,7 @@
       <c r="L287" s="28"/>
       <c r="M287" s="27"/>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="7"/>
       <c r="C288" s="6"/>
@@ -10151,7 +10161,7 @@
       <c r="L288" s="28"/>
       <c r="M288" s="27"/>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="7"/>
       <c r="C289" s="6"/>
@@ -10166,7 +10176,7 @@
       <c r="L289" s="28"/>
       <c r="M289" s="27"/>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="7"/>
       <c r="C290" s="6"/>
@@ -10181,7 +10191,7 @@
       <c r="L290" s="28"/>
       <c r="M290" s="27"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="7"/>
       <c r="C291" s="6"/>
@@ -10196,7 +10206,7 @@
       <c r="L291" s="28"/>
       <c r="M291" s="27"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="7"/>
       <c r="C292" s="6"/>
@@ -10211,7 +10221,7 @@
       <c r="L292" s="28"/>
       <c r="M292" s="27"/>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="7"/>
       <c r="C293" s="6"/>
@@ -10226,7 +10236,7 @@
       <c r="L293" s="28"/>
       <c r="M293" s="27"/>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="7"/>
       <c r="C294" s="6"/>
@@ -10241,7 +10251,7 @@
       <c r="L294" s="28"/>
       <c r="M294" s="27"/>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="7"/>
       <c r="C295" s="6"/>
@@ -10256,7 +10266,7 @@
       <c r="L295" s="28"/>
       <c r="M295" s="27"/>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="7"/>
       <c r="C296" s="6"/>
@@ -10271,7 +10281,7 @@
       <c r="L296" s="28"/>
       <c r="M296" s="27"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="7"/>
       <c r="C297" s="6"/>
@@ -10286,7 +10296,7 @@
       <c r="L297" s="28"/>
       <c r="M297" s="27"/>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="7"/>
       <c r="C298" s="6"/>
@@ -10301,7 +10311,7 @@
       <c r="L298" s="28"/>
       <c r="M298" s="27"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="7"/>
       <c r="C299" s="6"/>
@@ -10316,7 +10326,7 @@
       <c r="L299" s="28"/>
       <c r="M299" s="27"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="7"/>
       <c r="C300" s="6"/>
@@ -10331,7 +10341,7 @@
       <c r="L300" s="28"/>
       <c r="M300" s="27"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="7"/>
       <c r="C301" s="6"/>
@@ -10346,7 +10356,7 @@
       <c r="L301" s="28"/>
       <c r="M301" s="27"/>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="7"/>
       <c r="C302" s="6"/>
@@ -10361,7 +10371,7 @@
       <c r="L302" s="28"/>
       <c r="M302" s="27"/>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="7"/>
       <c r="C303" s="6"/>
@@ -10376,7 +10386,7 @@
       <c r="L303" s="28"/>
       <c r="M303" s="27"/>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="7"/>
       <c r="C304" s="6"/>
@@ -10391,7 +10401,7 @@
       <c r="L304" s="28"/>
       <c r="M304" s="27"/>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="7"/>
       <c r="C305" s="6"/>
@@ -10406,7 +10416,7 @@
       <c r="L305" s="28"/>
       <c r="M305" s="27"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="7"/>
       <c r="C306" s="6"/>
@@ -10421,7 +10431,7 @@
       <c r="L306" s="28"/>
       <c r="M306" s="27"/>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="7"/>
       <c r="C307" s="6"/>
@@ -10436,7 +10446,7 @@
       <c r="L307" s="28"/>
       <c r="M307" s="27"/>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="7"/>
       <c r="C308" s="6"/>
@@ -10450,7 +10460,7 @@
       <c r="L308" s="5"/>
       <c r="M308" s="2"/>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="7"/>
       <c r="C309" s="6"/>
@@ -10464,7 +10474,7 @@
       <c r="L309" s="5"/>
       <c r="M309" s="2"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="7"/>
       <c r="C310" s="6"/>
@@ -10478,7 +10488,7 @@
       <c r="L310" s="5"/>
       <c r="M310" s="2"/>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="7"/>
       <c r="C311" s="6"/>
@@ -10492,7 +10502,7 @@
       <c r="L311" s="5"/>
       <c r="M311" s="2"/>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="7"/>
       <c r="C312" s="6"/>
@@ -10506,7 +10516,7 @@
       <c r="L312" s="5"/>
       <c r="M312" s="2"/>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="7"/>
       <c r="C313" s="6"/>
@@ -10520,7 +10530,7 @@
       <c r="L313" s="5"/>
       <c r="M313" s="2"/>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="7"/>
       <c r="C314" s="6"/>
@@ -10534,7 +10544,7 @@
       <c r="L314" s="5"/>
       <c r="M314" s="2"/>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="7"/>
       <c r="C315" s="6"/>
@@ -10548,7 +10558,7 @@
       <c r="L315" s="5"/>
       <c r="M315" s="2"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="7"/>
       <c r="C316" s="6"/>
@@ -10562,7 +10572,7 @@
       <c r="L316" s="5"/>
       <c r="M316" s="2"/>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="7"/>
       <c r="C317" s="6"/>
@@ -10576,7 +10586,7 @@
       <c r="L317" s="5"/>
       <c r="M317" s="2"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="7"/>
       <c r="C318" s="6"/>
@@ -10590,7 +10600,7 @@
       <c r="L318" s="5"/>
       <c r="M318" s="2"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="7"/>
       <c r="C319" s="6"/>
@@ -10604,7 +10614,7 @@
       <c r="L319" s="5"/>
       <c r="M319" s="2"/>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="7"/>
       <c r="C320" s="6"/>
@@ -10618,7 +10628,7 @@
       <c r="L320" s="5"/>
       <c r="M320" s="2"/>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="7"/>
       <c r="C321" s="6"/>
@@ -10632,7 +10642,7 @@
       <c r="L321" s="5"/>
       <c r="M321" s="2"/>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="7"/>
       <c r="C322" s="6"/>
@@ -10646,7 +10656,7 @@
       <c r="L322" s="5"/>
       <c r="M322" s="2"/>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="7"/>
       <c r="C323" s="6"/>
@@ -10660,7 +10670,7 @@
       <c r="L323" s="5"/>
       <c r="M323" s="2"/>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="7"/>
       <c r="C324" s="6"/>
@@ -10674,7 +10684,7 @@
       <c r="L324" s="5"/>
       <c r="M324" s="2"/>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="7"/>
       <c r="C325" s="6"/>
@@ -10688,7 +10698,7 @@
       <c r="L325" s="5"/>
       <c r="M325" s="2"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="7"/>
       <c r="C326" s="6"/>
@@ -10702,7 +10712,7 @@
       <c r="L326" s="5"/>
       <c r="M326" s="2"/>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="7"/>
       <c r="C327" s="6"/>
@@ -10716,7 +10726,7 @@
       <c r="L327" s="5"/>
       <c r="M327" s="2"/>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="7"/>
       <c r="C328" s="6"/>
@@ -10730,7 +10740,7 @@
       <c r="L328" s="5"/>
       <c r="M328" s="2"/>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="7"/>
       <c r="C329" s="6"/>
@@ -10744,7 +10754,7 @@
       <c r="L329" s="5"/>
       <c r="M329" s="2"/>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="7"/>
       <c r="C330" s="6"/>
@@ -10758,7 +10768,7 @@
       <c r="L330" s="5"/>
       <c r="M330" s="2"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="7"/>
       <c r="C331" s="6"/>
@@ -10772,7 +10782,7 @@
       <c r="L331" s="5"/>
       <c r="M331" s="2"/>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="7"/>
       <c r="C332" s="6"/>
@@ -10786,7 +10796,7 @@
       <c r="L332" s="5"/>
       <c r="M332" s="2"/>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="7"/>
       <c r="C333" s="6"/>
@@ -10800,7 +10810,7 @@
       <c r="L333" s="5"/>
       <c r="M333" s="2"/>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="7"/>
       <c r="C334" s="6"/>
@@ -10814,7 +10824,7 @@
       <c r="L334" s="5"/>
       <c r="M334" s="2"/>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="7"/>
       <c r="C335" s="6"/>
@@ -10828,7 +10838,7 @@
       <c r="L335" s="5"/>
       <c r="M335" s="2"/>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="7"/>
       <c r="C336" s="6"/>
@@ -10842,7 +10852,7 @@
       <c r="L336" s="5"/>
       <c r="M336" s="2"/>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="7"/>
       <c r="C337" s="6"/>
@@ -10856,7 +10866,7 @@
       <c r="L337" s="5"/>
       <c r="M337" s="2"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="7"/>
       <c r="C338" s="6"/>
@@ -10870,7 +10880,7 @@
       <c r="L338" s="5"/>
       <c r="M338" s="2"/>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="7"/>
       <c r="C339" s="6"/>
@@ -10884,7 +10894,7 @@
       <c r="L339" s="5"/>
       <c r="M339" s="2"/>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="7"/>
       <c r="C340" s="6"/>
@@ -10898,7 +10908,7 @@
       <c r="L340" s="5"/>
       <c r="M340" s="2"/>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="7"/>
       <c r="C341" s="6"/>
@@ -10912,7 +10922,7 @@
       <c r="L341" s="5"/>
       <c r="M341" s="2"/>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="7"/>
       <c r="C342" s="6"/>
@@ -10926,7 +10936,7 @@
       <c r="L342" s="5"/>
       <c r="M342" s="2"/>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="7"/>
       <c r="C343" s="6"/>
@@ -10940,7 +10950,7 @@
       <c r="L343" s="5"/>
       <c r="M343" s="2"/>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="7"/>
       <c r="C344" s="6"/>
@@ -10954,7 +10964,7 @@
       <c r="L344" s="5"/>
       <c r="M344" s="2"/>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="7"/>
       <c r="C345" s="6"/>
@@ -10968,7 +10978,7 @@
       <c r="L345" s="5"/>
       <c r="M345" s="2"/>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="7"/>
       <c r="C346" s="6"/>
@@ -10982,7 +10992,7 @@
       <c r="L346" s="5"/>
       <c r="M346" s="2"/>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="7"/>
       <c r="C347" s="6"/>
@@ -10996,7 +11006,7 @@
       <c r="L347" s="5"/>
       <c r="M347" s="2"/>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="7"/>
       <c r="C348" s="6"/>
@@ -11010,7 +11020,7 @@
       <c r="L348" s="5"/>
       <c r="M348" s="2"/>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="7"/>
       <c r="C349" s="6"/>
@@ -11024,7 +11034,7 @@
       <c r="L349" s="5"/>
       <c r="M349" s="2"/>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="7"/>
       <c r="C350" s="6"/>
@@ -11038,7 +11048,7 @@
       <c r="L350" s="5"/>
       <c r="M350" s="2"/>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="7"/>
       <c r="C351" s="6"/>
@@ -11052,7 +11062,7 @@
       <c r="L351" s="5"/>
       <c r="M351" s="2"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="7"/>
       <c r="C352" s="6"/>
@@ -11066,7 +11076,7 @@
       <c r="L352" s="5"/>
       <c r="M352" s="2"/>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="7"/>
       <c r="C353" s="6"/>
@@ -11080,7 +11090,7 @@
       <c r="L353" s="5"/>
       <c r="M353" s="2"/>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="7"/>
       <c r="C354" s="6"/>
@@ -11094,7 +11104,7 @@
       <c r="L354" s="5"/>
       <c r="M354" s="2"/>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="7"/>
       <c r="C355" s="6"/>
@@ -11108,7 +11118,7 @@
       <c r="L355" s="5"/>
       <c r="M355" s="2"/>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="7"/>
       <c r="C356" s="6"/>
@@ -11122,7 +11132,7 @@
       <c r="L356" s="5"/>
       <c r="M356" s="2"/>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="7"/>
       <c r="C357" s="6"/>
@@ -11136,7 +11146,7 @@
       <c r="L357" s="5"/>
       <c r="M357" s="2"/>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="7"/>
       <c r="C358" s="6"/>
@@ -11150,7 +11160,7 @@
       <c r="L358" s="5"/>
       <c r="M358" s="2"/>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="7"/>
       <c r="C359" s="6"/>
@@ -11164,7 +11174,7 @@
       <c r="L359" s="5"/>
       <c r="M359" s="2"/>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="7"/>
       <c r="C360" s="6"/>
@@ -11178,7 +11188,7 @@
       <c r="L360" s="5"/>
       <c r="M360" s="2"/>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="7"/>
       <c r="C361" s="6"/>
@@ -11192,7 +11202,7 @@
       <c r="L361" s="5"/>
       <c r="M361" s="2"/>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="7"/>
       <c r="C362" s="6"/>
@@ -11206,7 +11216,7 @@
       <c r="L362" s="5"/>
       <c r="M362" s="2"/>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="7"/>
       <c r="C363" s="6"/>
@@ -11220,7 +11230,7 @@
       <c r="L363" s="5"/>
       <c r="M363" s="2"/>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="7"/>
       <c r="C364" s="6"/>
@@ -11234,7 +11244,7 @@
       <c r="L364" s="5"/>
       <c r="M364" s="2"/>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="7"/>
       <c r="C365" s="6"/>
@@ -11248,7 +11258,7 @@
       <c r="L365" s="5"/>
       <c r="M365" s="2"/>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="7"/>
       <c r="C366" s="6"/>
@@ -11262,7 +11272,7 @@
       <c r="L366" s="5"/>
       <c r="M366" s="2"/>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="7"/>
       <c r="C367" s="6"/>
@@ -11276,7 +11286,7 @@
       <c r="L367" s="5"/>
       <c r="M367" s="2"/>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="7"/>
       <c r="C368" s="6"/>
@@ -11290,7 +11300,7 @@
       <c r="L368" s="5"/>
       <c r="M368" s="2"/>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="7"/>
       <c r="C369" s="6"/>
@@ -11304,7 +11314,7 @@
       <c r="L369" s="5"/>
       <c r="M369" s="2"/>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="7"/>
       <c r="C370" s="6"/>
@@ -11318,7 +11328,7 @@
       <c r="L370" s="5"/>
       <c r="M370" s="2"/>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="7"/>
       <c r="C371" s="6"/>
@@ -11332,7 +11342,7 @@
       <c r="L371" s="5"/>
       <c r="M371" s="2"/>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="7"/>
       <c r="C372" s="6"/>
@@ -11346,7 +11356,7 @@
       <c r="L372" s="5"/>
       <c r="M372" s="2"/>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="7"/>
       <c r="C373" s="6"/>
@@ -11360,7 +11370,7 @@
       <c r="L373" s="5"/>
       <c r="M373" s="2"/>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="7"/>
       <c r="C374" s="6"/>
@@ -11374,7 +11384,7 @@
       <c r="L374" s="5"/>
       <c r="M374" s="2"/>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="7"/>
       <c r="C375" s="6"/>
@@ -11388,7 +11398,7 @@
       <c r="L375" s="5"/>
       <c r="M375" s="2"/>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="7"/>
       <c r="C376" s="6"/>
@@ -11402,7 +11412,7 @@
       <c r="L376" s="5"/>
       <c r="M376" s="2"/>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="7"/>
       <c r="C377" s="6"/>
@@ -11416,7 +11426,7 @@
       <c r="L377" s="5"/>
       <c r="M377" s="2"/>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="7"/>
       <c r="C378" s="6"/>
@@ -11430,7 +11440,7 @@
       <c r="L378" s="5"/>
       <c r="M378" s="2"/>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="7"/>
       <c r="C379" s="6"/>
@@ -11444,7 +11454,7 @@
       <c r="L379" s="5"/>
       <c r="M379" s="2"/>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="7"/>
       <c r="C380" s="6"/>
@@ -11458,7 +11468,7 @@
       <c r="L380" s="5"/>
       <c r="M380" s="2"/>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="7"/>
       <c r="C381" s="6"/>
@@ -11472,7 +11482,7 @@
       <c r="L381" s="5"/>
       <c r="M381" s="2"/>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="7"/>
       <c r="C382" s="6"/>
@@ -11486,7 +11496,7 @@
       <c r="L382" s="5"/>
       <c r="M382" s="2"/>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="7"/>
       <c r="C383" s="6"/>
@@ -11500,7 +11510,7 @@
       <c r="L383" s="5"/>
       <c r="M383" s="2"/>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="7"/>
       <c r="C384" s="6"/>
@@ -11514,7 +11524,7 @@
       <c r="L384" s="5"/>
       <c r="M384" s="2"/>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="7"/>
       <c r="C385" s="6"/>
@@ -11528,7 +11538,7 @@
       <c r="L385" s="5"/>
       <c r="M385" s="2"/>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="7"/>
       <c r="C386" s="6"/>
@@ -11542,7 +11552,7 @@
       <c r="L386" s="5"/>
       <c r="M386" s="2"/>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="7"/>
       <c r="C387" s="6"/>
@@ -11556,7 +11566,7 @@
       <c r="L387" s="5"/>
       <c r="M387" s="2"/>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="7"/>
       <c r="C388" s="6"/>
@@ -11570,7 +11580,7 @@
       <c r="L388" s="5"/>
       <c r="M388" s="2"/>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="7"/>
       <c r="C389" s="6"/>
@@ -11584,7 +11594,7 @@
       <c r="L389" s="5"/>
       <c r="M389" s="2"/>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="7"/>
       <c r="C390" s="6"/>
@@ -11598,7 +11608,7 @@
       <c r="L390" s="5"/>
       <c r="M390" s="2"/>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="7"/>
       <c r="C391" s="6"/>
@@ -11612,7 +11622,7 @@
       <c r="L391" s="5"/>
       <c r="M391" s="2"/>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="7"/>
       <c r="C392" s="6"/>
@@ -11626,7 +11636,7 @@
       <c r="L392" s="5"/>
       <c r="M392" s="2"/>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="7"/>
       <c r="C393" s="6"/>
@@ -11640,7 +11650,7 @@
       <c r="L393" s="5"/>
       <c r="M393" s="2"/>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="7"/>
       <c r="C394" s="6"/>
@@ -11654,7 +11664,7 @@
       <c r="L394" s="5"/>
       <c r="M394" s="2"/>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="7"/>
       <c r="C395" s="6"/>
@@ -11668,7 +11678,7 @@
       <c r="L395" s="5"/>
       <c r="M395" s="2"/>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="7"/>
       <c r="C396" s="6"/>
@@ -11682,7 +11692,7 @@
       <c r="L396" s="5"/>
       <c r="M396" s="2"/>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="7"/>
       <c r="C397" s="6"/>
@@ -11696,7 +11706,7 @@
       <c r="L397" s="5"/>
       <c r="M397" s="2"/>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="7"/>
       <c r="C398" s="6"/>
@@ -11710,7 +11720,7 @@
       <c r="L398" s="5"/>
       <c r="M398" s="2"/>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="7"/>
       <c r="C399" s="6"/>
@@ -11724,7 +11734,7 @@
       <c r="L399" s="5"/>
       <c r="M399" s="2"/>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="7"/>
       <c r="C400" s="6"/>
@@ -11738,7 +11748,7 @@
       <c r="L400" s="5"/>
       <c r="M400" s="2"/>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="7"/>
       <c r="C401" s="6"/>
@@ -11752,7 +11762,7 @@
       <c r="L401" s="5"/>
       <c r="M401" s="2"/>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="7"/>
       <c r="C402" s="6"/>
@@ -11766,7 +11776,7 @@
       <c r="L402" s="5"/>
       <c r="M402" s="2"/>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="7"/>
       <c r="C403" s="6"/>
@@ -11780,7 +11790,7 @@
       <c r="L403" s="5"/>
       <c r="M403" s="2"/>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="7"/>
       <c r="C404" s="6"/>
@@ -11794,7 +11804,7 @@
       <c r="L404" s="5"/>
       <c r="M404" s="2"/>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="7"/>
       <c r="C405" s="6"/>
@@ -11808,7 +11818,7 @@
       <c r="L405" s="5"/>
       <c r="M405" s="2"/>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="7"/>
       <c r="C406" s="6"/>
@@ -11822,7 +11832,7 @@
       <c r="L406" s="5"/>
       <c r="M406" s="2"/>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="7"/>
       <c r="C407" s="6"/>
@@ -11836,7 +11846,7 @@
       <c r="L407" s="5"/>
       <c r="M407" s="2"/>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="7"/>
       <c r="C408" s="6"/>
@@ -11850,7 +11860,7 @@
       <c r="L408" s="5"/>
       <c r="M408" s="2"/>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="7"/>
       <c r="C409" s="6"/>
@@ -11864,7 +11874,7 @@
       <c r="L409" s="5"/>
       <c r="M409" s="2"/>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="7"/>
       <c r="C410" s="6"/>
@@ -11878,7 +11888,7 @@
       <c r="L410" s="5"/>
       <c r="M410" s="2"/>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="7"/>
       <c r="C411" s="6"/>
@@ -11892,7 +11902,7 @@
       <c r="L411" s="5"/>
       <c r="M411" s="2"/>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="7"/>
       <c r="C412" s="6"/>
@@ -11906,7 +11916,7 @@
       <c r="L412" s="5"/>
       <c r="M412" s="2"/>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="7"/>
       <c r="C413" s="6"/>
@@ -11920,7 +11930,7 @@
       <c r="L413" s="5"/>
       <c r="M413" s="2"/>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="7"/>
       <c r="C414" s="6"/>
@@ -11934,7 +11944,7 @@
       <c r="L414" s="5"/>
       <c r="M414" s="2"/>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="7"/>
       <c r="C415" s="6"/>
@@ -11948,7 +11958,7 @@
       <c r="L415" s="5"/>
       <c r="M415" s="2"/>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="7"/>
       <c r="C416" s="6"/>
@@ -11962,7 +11972,7 @@
       <c r="L416" s="5"/>
       <c r="M416" s="2"/>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="7"/>
       <c r="C417" s="6"/>
@@ -11976,7 +11986,7 @@
       <c r="L417" s="5"/>
       <c r="M417" s="2"/>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="7"/>
       <c r="C418" s="6"/>
@@ -11990,7 +12000,7 @@
       <c r="L418" s="5"/>
       <c r="M418" s="2"/>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="7"/>
       <c r="C419" s="6"/>
@@ -12004,7 +12014,7 @@
       <c r="L419" s="5"/>
       <c r="M419" s="2"/>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="7"/>
       <c r="C420" s="6"/>
@@ -12018,7 +12028,7 @@
       <c r="L420" s="5"/>
       <c r="M420" s="2"/>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="7"/>
       <c r="C421" s="6"/>
@@ -12032,7 +12042,7 @@
       <c r="L421" s="5"/>
       <c r="M421" s="2"/>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="7"/>
       <c r="C422" s="6"/>
@@ -12046,7 +12056,7 @@
       <c r="L422" s="5"/>
       <c r="M422" s="2"/>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="7"/>
       <c r="C423" s="6"/>
@@ -12060,7 +12070,7 @@
       <c r="L423" s="5"/>
       <c r="M423" s="2"/>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="7"/>
       <c r="C424" s="6"/>
@@ -12074,7 +12084,7 @@
       <c r="L424" s="5"/>
       <c r="M424" s="2"/>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="7"/>
       <c r="C425" s="6"/>
@@ -12088,7 +12098,7 @@
       <c r="L425" s="5"/>
       <c r="M425" s="2"/>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="7"/>
       <c r="C426" s="6"/>
@@ -12102,7 +12112,7 @@
       <c r="L426" s="5"/>
       <c r="M426" s="2"/>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="7"/>
       <c r="C427" s="6"/>
@@ -12116,7 +12126,7 @@
       <c r="L427" s="5"/>
       <c r="M427" s="2"/>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="7"/>
       <c r="C428" s="6"/>
@@ -12130,7 +12140,7 @@
       <c r="L428" s="5"/>
       <c r="M428" s="2"/>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="7"/>
       <c r="C429" s="6"/>
@@ -12144,7 +12154,7 @@
       <c r="L429" s="5"/>
       <c r="M429" s="2"/>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="7"/>
       <c r="C430" s="6"/>
@@ -12158,7 +12168,7 @@
       <c r="L430" s="5"/>
       <c r="M430" s="2"/>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="7"/>
       <c r="C431" s="6"/>
@@ -12172,7 +12182,7 @@
       <c r="L431" s="5"/>
       <c r="M431" s="2"/>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" s="6"/>
       <c r="B432" s="7"/>
       <c r="C432" s="6"/>
@@ -12186,7 +12196,7 @@
       <c r="L432" s="5"/>
       <c r="M432" s="2"/>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="7"/>
       <c r="C433" s="6"/>
@@ -12200,7 +12210,7 @@
       <c r="L433" s="5"/>
       <c r="M433" s="2"/>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" s="6"/>
       <c r="B434" s="7"/>
       <c r="C434" s="6"/>
@@ -12214,7 +12224,7 @@
       <c r="L434" s="5"/>
       <c r="M434" s="2"/>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
       <c r="B435" s="7"/>
       <c r="C435" s="6"/>
@@ -12228,7 +12238,7 @@
       <c r="L435" s="5"/>
       <c r="M435" s="2"/>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="7"/>
       <c r="C436" s="6"/>
@@ -12242,7 +12252,7 @@
       <c r="L436" s="5"/>
       <c r="M436" s="2"/>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" s="6"/>
       <c r="B437" s="7"/>
       <c r="C437" s="6"/>
@@ -12256,7 +12266,7 @@
       <c r="L437" s="5"/>
       <c r="M437" s="2"/>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" s="6"/>
       <c r="B438" s="7"/>
       <c r="C438" s="6"/>
@@ -12270,7 +12280,7 @@
       <c r="L438" s="5"/>
       <c r="M438" s="2"/>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" s="6"/>
       <c r="B439" s="7"/>
       <c r="C439" s="6"/>
@@ -12284,7 +12294,7 @@
       <c r="L439" s="5"/>
       <c r="M439" s="2"/>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" s="6"/>
       <c r="B440" s="7"/>
       <c r="C440" s="6"/>
@@ -12298,7 +12308,7 @@
       <c r="L440" s="5"/>
       <c r="M440" s="2"/>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" s="6"/>
       <c r="B441" s="7"/>
       <c r="C441" s="6"/>
@@ -12312,7 +12322,7 @@
       <c r="L441" s="5"/>
       <c r="M441" s="2"/>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" s="6"/>
       <c r="B442" s="7"/>
       <c r="C442" s="6"/>
@@ -12326,7 +12336,7 @@
       <c r="L442" s="5"/>
       <c r="M442" s="2"/>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" s="6"/>
       <c r="B443" s="7"/>
       <c r="C443" s="6"/>
@@ -12340,7 +12350,7 @@
       <c r="L443" s="5"/>
       <c r="M443" s="2"/>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" s="6"/>
       <c r="B444" s="7"/>
       <c r="C444" s="6"/>
@@ -12354,7 +12364,7 @@
       <c r="L444" s="5"/>
       <c r="M444" s="2"/>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
       <c r="B445" s="7"/>
       <c r="C445" s="6"/>
@@ -12368,7 +12378,7 @@
       <c r="L445" s="5"/>
       <c r="M445" s="2"/>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" s="6"/>
       <c r="B446" s="7"/>
       <c r="C446" s="6"/>
@@ -12382,7 +12392,7 @@
       <c r="L446" s="5"/>
       <c r="M446" s="2"/>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" s="6"/>
       <c r="B447" s="7"/>
       <c r="C447" s="6"/>
@@ -12396,7 +12406,7 @@
       <c r="L447" s="5"/>
       <c r="M447" s="2"/>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" s="6"/>
       <c r="B448" s="7"/>
       <c r="C448" s="6"/>
@@ -12410,7 +12420,7 @@
       <c r="L448" s="5"/>
       <c r="M448" s="2"/>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
       <c r="B449" s="7"/>
       <c r="C449" s="6"/>
@@ -12424,7 +12434,7 @@
       <c r="L449" s="5"/>
       <c r="M449" s="2"/>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
       <c r="B450" s="7"/>
       <c r="C450" s="6"/>
@@ -12438,7 +12448,7 @@
       <c r="L450" s="5"/>
       <c r="M450" s="2"/>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
       <c r="B451" s="7"/>
       <c r="C451" s="6"/>
@@ -12452,7 +12462,7 @@
       <c r="L451" s="5"/>
       <c r="M451" s="2"/>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" s="6"/>
       <c r="B452" s="7"/>
       <c r="C452" s="6"/>
@@ -12466,7 +12476,7 @@
       <c r="L452" s="5"/>
       <c r="M452" s="2"/>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
       <c r="B453" s="7"/>
       <c r="C453" s="6"/>
@@ -12480,7 +12490,7 @@
       <c r="L453" s="5"/>
       <c r="M453" s="2"/>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="7"/>
       <c r="C454" s="6"/>
@@ -12494,7 +12504,7 @@
       <c r="L454" s="5"/>
       <c r="M454" s="2"/>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" s="6"/>
       <c r="B455" s="7"/>
       <c r="C455" s="6"/>
@@ -12508,7 +12518,7 @@
       <c r="L455" s="5"/>
       <c r="M455" s="2"/>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" s="6"/>
       <c r="B456" s="7"/>
       <c r="C456" s="6"/>
@@ -12522,7 +12532,7 @@
       <c r="L456" s="5"/>
       <c r="M456" s="2"/>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
       <c r="B457" s="7"/>
       <c r="C457" s="6"/>
@@ -12536,7 +12546,7 @@
       <c r="L457" s="5"/>
       <c r="M457" s="2"/>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="B458" s="7"/>
       <c r="C458" s="6"/>
@@ -12550,7 +12560,7 @@
       <c r="L458" s="5"/>
       <c r="M458" s="2"/>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="B459" s="7"/>
       <c r="C459" s="6"/>
@@ -12564,7 +12574,7 @@
       <c r="L459" s="5"/>
       <c r="M459" s="2"/>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="B460" s="7"/>
       <c r="C460" s="6"/>
@@ -12578,7 +12588,7 @@
       <c r="L460" s="5"/>
       <c r="M460" s="2"/>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="B461" s="7"/>
       <c r="C461" s="6"/>
@@ -12592,7 +12602,7 @@
       <c r="L461" s="5"/>
       <c r="M461" s="2"/>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
       <c r="B462" s="7"/>
       <c r="C462" s="6"/>
@@ -12606,7 +12616,7 @@
       <c r="L462" s="5"/>
       <c r="M462" s="2"/>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="B463" s="7"/>
       <c r="C463" s="6"/>
@@ -12620,7 +12630,7 @@
       <c r="L463" s="5"/>
       <c r="M463" s="2"/>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
       <c r="B464" s="7"/>
       <c r="C464" s="6"/>
@@ -12634,7 +12644,7 @@
       <c r="L464" s="5"/>
       <c r="M464" s="2"/>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" s="6"/>
       <c r="B465" s="7"/>
       <c r="C465" s="6"/>
@@ -12648,7 +12658,7 @@
       <c r="L465" s="5"/>
       <c r="M465" s="2"/>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="B466" s="7"/>
       <c r="C466" s="6"/>
@@ -12662,7 +12672,7 @@
       <c r="L466" s="5"/>
       <c r="M466" s="2"/>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" s="6"/>
       <c r="B467" s="7"/>
       <c r="C467" s="6"/>
@@ -12683,6 +12693,9 @@
     <mergeCell ref="L1:L3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
